--- a/2019_dkp/2019_12_04_dkp.xlsx
+++ b/2019_dkp/2019_12_04_dkp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Blizzard\World of Warcraft\wow_dkp\2019_dkp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB96BE93-074E-4911-8E9A-A17B443DE094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632CDE55-E663-4D54-9FDD-96DAC06B110C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -712,10 +712,10 @@
   <dimension ref="B1:P57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2493,7 +2493,8 @@
         <v>8</v>
       </c>
       <c r="H54" s="7">
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="5"/>
@@ -2507,7 +2508,7 @@
       <c r="O54" s="5"/>
       <c r="P54" s="9">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.2">
@@ -2621,7 +2622,7 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F1:H55 L1:M55 L58:M1048576 F58:H1048576">
+  <conditionalFormatting sqref="L1:M55 L58:M1048576 F58:H1048576 F1:H55">
     <cfRule type="cellIs" dxfId="2" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>

--- a/2019_dkp/2019_12_04_dkp.xlsx
+++ b/2019_dkp/2019_12_04_dkp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Blizzard\World of Warcraft\wow_dkp\2019_dkp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632CDE55-E663-4D54-9FDD-96DAC06B110C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A9B15E-955A-4A23-9F4E-B1FC20DF6741}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -712,10 +712,10 @@
   <dimension ref="B1:P57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H54" sqref="H54"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1259,7 +1259,7 @@
         <v>11</v>
       </c>
       <c r="D18" s="5">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="6"/>
@@ -1284,7 +1284,7 @@
       <c r="O18" s="5"/>
       <c r="P18" s="9">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.2">
